--- a/problem_set_1/sales.xlsx
+++ b/problem_set_1/sales.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/auffhammer/Library/CloudStorage/Dropbox/06_Teaching/MACSS/2024/code/public-repository-1/problem_set_1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1F8E7372-E1E9-D245-8728-981F7A1ED413}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E50789C-C1C6-334E-90D3-2ADB4B54DD88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5580" yWindow="2300" windowWidth="23820" windowHeight="15480" xr2:uid="{A84D125B-FCC1-354E-8BE7-855DF00DC1EF}"/>
   </bookViews>
@@ -17,6 +17,14 @@
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+  <si>
+    <t>sales</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -875,371 +883,376 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A5599AF-0592-A446-A9E8-FC94BC462F3D}">
-  <dimension ref="A1:A72"/>
+  <dimension ref="A1:A73"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A72"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1">
-        <v>14901.814</v>
+      <c r="A1" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2">
-        <v>13308.022000000001</v>
+        <v>14901.814</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3">
-        <v>11417.172</v>
+        <v>13308.022000000001</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4">
-        <v>14190.294</v>
+        <v>11417.172</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5">
-        <v>9631.8080000000009</v>
+        <v>14190.294</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6">
-        <v>14725.831</v>
+        <v>9631.8080000000009</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7">
-        <v>18271.224999999999</v>
+        <v>14725.831</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8">
-        <v>13401.805</v>
+        <v>18271.224999999999</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A9">
-        <v>14543.066999999999</v>
+        <v>13401.805</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A10">
-        <v>15367.53</v>
+        <v>14543.066999999999</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A11">
-        <v>12885.853999999999</v>
+        <v>15367.53</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A12">
-        <v>12402.103999999999</v>
+        <v>12885.853999999999</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A13">
-        <v>14977.651</v>
+        <v>12402.103999999999</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A14">
-        <v>12966.598</v>
+        <v>14977.651</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A15">
-        <v>9695.2119999999995</v>
+        <v>12966.598</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A16">
-        <v>11741.74</v>
+        <v>9695.2119999999995</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17">
-        <v>14176.046</v>
+        <v>11741.74</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A18">
-        <v>17439.781999999999</v>
+        <v>14176.046</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A19">
-        <v>8377.0280000000002</v>
+        <v>17439.781999999999</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A20">
-        <v>16482.334999999999</v>
+        <v>8377.0280000000002</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A21">
-        <v>10318.633</v>
+        <v>16482.334999999999</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A22">
-        <v>14828.767</v>
+        <v>10318.633</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A23">
-        <v>13523.673000000001</v>
+        <v>14828.767</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A24">
-        <v>13584.489</v>
+        <v>13523.673000000001</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A25">
-        <v>12207.119000000001</v>
+        <v>13584.489</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A26">
-        <v>8583.5550000000003</v>
+        <v>12207.119000000001</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A27">
-        <v>15041.763999999999</v>
+        <v>8583.5550000000003</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A28">
-        <v>10959.514999999999</v>
+        <v>15041.763999999999</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A29">
-        <v>10641.75</v>
+        <v>10959.514999999999</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A30">
-        <v>16530.901000000002</v>
+        <v>10641.75</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A31">
-        <v>13078.022999999999</v>
+        <v>16530.901000000002</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A32">
-        <v>13371.763999999999</v>
+        <v>13078.022999999999</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A33">
-        <v>12978.843000000001</v>
+        <v>13371.763999999999</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A34">
-        <v>14711.875</v>
+        <v>12978.843000000001</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A35">
-        <v>11321.455</v>
+        <v>14711.875</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A36">
-        <v>13779.002</v>
+        <v>11321.455</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A37">
-        <v>15818.138999999999</v>
+        <v>13779.002</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A38">
-        <v>13459.281999999999</v>
+        <v>15818.138999999999</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A39">
-        <v>10609.632</v>
+        <v>13459.281999999999</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A40">
-        <v>13948.816000000001</v>
+        <v>10609.632</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A41">
-        <v>11184.333000000001</v>
+        <v>13948.816000000001</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A42">
-        <v>14959.427</v>
+        <v>11184.333000000001</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A43">
-        <v>15612.019</v>
+        <v>14959.427</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A44">
-        <v>10426.733</v>
+        <v>15612.019</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A45">
-        <v>12521.960999999999</v>
+        <v>10426.733</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A46">
-        <v>10182.791999999999</v>
+        <v>12521.960999999999</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A47">
-        <v>11465.593000000001</v>
+        <v>10182.791999999999</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A48">
-        <v>12785.138000000001</v>
+        <v>11465.593000000001</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A49">
-        <v>13179.08</v>
+        <v>12785.138000000001</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A50">
-        <v>13727.365</v>
+        <v>13179.08</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A51">
-        <v>12928.125</v>
+        <v>13727.365</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A52">
-        <v>12433.662</v>
+        <v>12928.125</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A53">
-        <v>12304.785</v>
+        <v>12433.662</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A54">
-        <v>16301.278</v>
+        <v>12304.785</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A55">
-        <v>14643.444</v>
+        <v>16301.278</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A56">
-        <v>12272.838</v>
+        <v>14643.444</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A57">
-        <v>12574.723</v>
+        <v>12272.838</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A58">
-        <v>13078.102999999999</v>
+        <v>12574.723</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A59">
-        <v>13557.008</v>
+        <v>13078.102999999999</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A60">
-        <v>12321.921</v>
+        <v>13557.008</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A61">
-        <v>11147.174999999999</v>
+        <v>12321.921</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A62">
-        <v>11725.723</v>
+        <v>11147.174999999999</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A63">
-        <v>13276.017</v>
+        <v>11725.723</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A64">
-        <v>11267.177</v>
+        <v>13276.017</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A65">
-        <v>15179.273999999999</v>
+        <v>11267.177</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A66">
-        <v>12306.941999999999</v>
+        <v>15179.273999999999</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A67">
-        <v>11551.691000000001</v>
+        <v>12306.941999999999</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A68">
-        <v>9094.5720000000001</v>
+        <v>11551.691000000001</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A69">
-        <v>13082.481</v>
+        <v>9094.5720000000001</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A70">
-        <v>11452.664000000001</v>
+        <v>13082.481</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A71">
-        <v>12872.615</v>
+        <v>11452.664000000001</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A72">
+        <v>12872.615</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A73">
         <v>9907.8430000000008</v>
       </c>
     </row>
